--- a/processed/diet_composition.xlsx
+++ b/processed/diet_composition.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngomae/MyGithub/early_experience/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFA1F90-12AE-254A-B241-771EE6B68E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31358D20-629E-1B48-BAF7-1798B605DE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="480" windowWidth="27420" windowHeight="17040" xr2:uid="{B8D75366-2D75-6A43-ABC7-4863C84F39EA}"/>
+    <workbookView xWindow="6140" yWindow="460" windowWidth="27420" windowHeight="17040" activeTab="1" xr2:uid="{B8D75366-2D75-6A43-ABC7-4863C84F39EA}"/>
   </bookViews>
   <sheets>
     <sheet name="diet_composition" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>yeast</t>
   </si>
@@ -114,6 +115,9 @@
     <t>kJ</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>symb</t>
   </si>
   <si>
@@ -133,13 +137,64 @@
   </si>
   <si>
     <t>PC_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  grp           C    DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;chr&gt;     &lt;dbl&gt; &lt;dbl&gt;</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  grp          DR     C</t>
+  </si>
+  <si>
+    <t>1 RichEarly  3.36  3.94</t>
+  </si>
+  <si>
+    <t>2 PoorEarly  4.31  5.02</t>
+  </si>
+  <si>
+    <t>median fec</t>
+  </si>
+  <si>
+    <t>1 RichEarly  2.05  2.82</t>
+  </si>
+  <si>
+    <t>2 PoorEarly  3.49  2.12</t>
+  </si>
+  <si>
+    <t>fec, mean</t>
+  </si>
+  <si>
+    <t>Larval DR</t>
+  </si>
+  <si>
+    <t>Larval</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>RichEarly    26    36</t>
+  </si>
+  <si>
+    <t>PoorEarly    31    36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +211,52 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -180,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -202,6 +303,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672236D8-9966-C448-8E3B-D9917163F980}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,10 +655,10 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>23</v>
@@ -559,97 +675,97 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>34</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="11">
         <v>68</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <v>34</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="11">
         <v>7.3440000000000012</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>99.98</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="11">
         <v>49.99</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="11">
         <v>49.99</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="11">
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="11">
         <v>99.7</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
         <v>86.001220000000004</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="11">
         <v>76.900000000000006</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
         <v>31.3752</v>
       </c>
       <c r="H5" s="1"/>
@@ -659,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -682,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -705,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -885,94 +1001,94 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <v>52.5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="14">
         <v>105</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="13">
         <v>52.5</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="14">
         <v>11.340000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
         <v>3.3455999999999997</v>
       </c>
     </row>
@@ -985,15 +1101,6 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>35</v>
@@ -1001,32 +1108,182 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <f>E16/(E2+E3)</f>
-        <v>0.88990592423086701</v>
-      </c>
-      <c r="F22" s="1">
-        <f>F16/(F2+F3)</f>
-        <v>0.62507441362066907</v>
-      </c>
-      <c r="G22" s="1">
-        <f>(G16+G19)/(G2+G4+G5)</f>
-        <v>0.11774816024513066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="E22" s="8">
+        <f>E16+E17+E18+E19</f>
+        <v>105</v>
+      </c>
+      <c r="F22" s="8">
+        <f>F16+F19</f>
+        <v>52.5</v>
+      </c>
+      <c r="G22" s="8">
+        <f>G16+G19</f>
+        <v>14.685600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="E23" s="1">
+        <f>E2+E3+E4+E5</f>
+        <v>117.99000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <f>F2+F3</f>
+        <v>83.990000000000009</v>
+      </c>
+      <c r="G23" s="1">
+        <f>G2+G4+G5</f>
+        <v>124.72042000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <f>E16/(E2+E3)</f>
+        <v>0.88990592423086701</v>
+      </c>
+      <c r="F24" s="1">
+        <f>F22/F23</f>
+        <v>0.62507441362066907</v>
+      </c>
+      <c r="G24" s="1">
+        <f>G22/G23</f>
+        <v>0.11774816024513066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
-    <sortCondition ref="B2:B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
+    <sortCondition ref="B2:B25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB023B-50F2-BA48-9F0D-C8F5B375F79A}">
+  <dimension ref="A2:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>